--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_4_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_4_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>4.074536263942719e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>4.074536263942719e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42073.69459768791</v>
+        <v>2705573.52593021</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42073.69459768791</v>
+        <v>2705573.52593021</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418207600.627456</v>
+        <v>55555566.95020983</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12777.76722527576</v>
+        <v>1232874.78968486</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25162.86402853808</v>
+        <v>2397798.55199251</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37547.96083180037</v>
+        <v>3562722.314300161</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51237.69044534502</v>
+        <v>4656630.136182938</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64914.4815151542</v>
+        <v>5751563.680510447</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78591.27258496339</v>
+        <v>6846497.224837953</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92268.06365477254</v>
+        <v>7941430.769165457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105944.8547245818</v>
+        <v>9036364.313492961</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119634.5843381264</v>
+        <v>10130272.13537573</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133311.3754079357</v>
+        <v>11225205.67970323</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146646.9077249287</v>
+        <v>12334980.37611876</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159658.7361953681</v>
+        <v>13460091.50372958</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172538.1519228335</v>
+        <v>14592062.72015306</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187357.7080314748</v>
+        <v>15567138.07621242</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>202192.0052361161</v>
+        <v>16540745.25739778</v>
       </c>
     </row>
   </sheetData>
